--- a/Docs/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339BBA21-C415-4FAD-822E-23FDB6B871D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFEE60D-3637-4904-8BD1-4B8B2CC03143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
   <si>
     <t>VVSS, Info Romana, 2020-2021</t>
   </si>
@@ -531,6 +531,24 @@
   </si>
   <si>
     <t>Mirt Leonard</t>
+  </si>
+  <si>
+    <t>[t1,t4]</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>{start: "6/10/2021"}, {end: "7/10/2021"}</t>
+  </si>
+  <si>
+    <t>[t5]</t>
+  </si>
+  <si>
+    <t>1,2,10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,2,10</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1668,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1739,9 +1757,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1770,53 +1785,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1848,16 +1875,82 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1875,116 +1968,45 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2101,10 +2123,10 @@
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>186017</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>88446</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>62667</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2133,8 +2155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4818529" y="1295399"/>
-          <a:ext cx="7967383" cy="7967383"/>
+          <a:off x="5093474" y="1254578"/>
+          <a:ext cx="5969133" cy="5427965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2449,29 +2471,29 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B1" s="10"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2481,7 +2503,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2493,7 +2515,7 @@
       </c>
       <c r="P5" s="32"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2505,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2520,7 +2542,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2535,95 +2557,95 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="24" t="s">
         <v>12</v>
       </c>
       <c r="O9" s="24"/>
-      <c r="P9" s="40"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-    </row>
-    <row r="12" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="P9" s="115"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2642,311 +2664,312 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59996337778862885"/>
   </sheetPr>
-  <dimension ref="B1:AD24"/>
+  <dimension ref="B1:V24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB36" sqref="AB36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="28" max="28" width="26.5703125" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.73046875" customWidth="1"/>
+    <col min="22" max="22" width="22.73046875" customWidth="1"/>
+    <col min="28" max="28" width="26.59765625" customWidth="1"/>
+    <col min="30" max="30" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B1" s="10"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="AA6" s="48" t="s">
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="S6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="I8" s="10"/>
-      <c r="AA8" s="54" t="s">
+      <c r="S8" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="29">
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="I9" s="31"/>
-      <c r="AA9" s="54" t="s">
+      <c r="S9" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="29">
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="I10" s="59" t="s">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="I10" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61"/>
-      <c r="AA10" s="54" t="s">
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58"/>
+      <c r="S10" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AB10" s="54" t="s">
+      <c r="T10" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="29">
+      <c r="U10" s="65"/>
+      <c r="V10" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="64"/>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64"/>
-      <c r="AA13" s="48" t="s">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
+      <c r="S13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="I14" s="62"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
-    </row>
-    <row r="15" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="62"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="64"/>
-      <c r="AA15" s="33" t="s">
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
+    </row>
+    <row r="15" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
+      <c r="S15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AB15" s="68" t="s">
+      <c r="T15" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-    </row>
-    <row r="16" spans="2:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="64"/>
-      <c r="AA16" s="32" t="s">
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+    </row>
+    <row r="16" spans="2:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
+      <c r="S16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="53" t="s">
+      <c r="T16" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-    </row>
-    <row r="17" spans="9:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="62"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="64"/>
-      <c r="AA17" s="32" t="s">
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+    </row>
+    <row r="17" spans="9:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
+      <c r="S17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AB17" s="53" t="s">
+      <c r="T17" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-    </row>
-    <row r="18" spans="9:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="64"/>
-      <c r="AA18" s="32" t="s">
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+    </row>
+    <row r="18" spans="9:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="61"/>
+      <c r="S18" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AB18" s="53" t="s">
+      <c r="T18" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
-    </row>
-    <row r="19" spans="9:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="64"/>
-      <c r="AA19" s="32" t="s">
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+    </row>
+    <row r="19" spans="9:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
+      <c r="S19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AB19" s="53" t="s">
+      <c r="T19" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-    </row>
-    <row r="20" spans="9:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="64"/>
-      <c r="AA20" s="41" t="s">
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+    </row>
+    <row r="20" spans="9:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
+      <c r="S20" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AB20" s="55" t="s">
+      <c r="T20" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-    </row>
-    <row r="21" spans="9:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="64"/>
-    </row>
-    <row r="22" spans="9:30" x14ac:dyDescent="0.25">
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="64"/>
-    </row>
-    <row r="23" spans="9:30" x14ac:dyDescent="0.25">
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="64"/>
-    </row>
-    <row r="24" spans="9:30" x14ac:dyDescent="0.25">
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="67"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+    </row>
+    <row r="21" spans="9:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
+    </row>
+    <row r="22" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
+    </row>
+    <row r="23" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="61"/>
+    </row>
+    <row r="24" spans="9:22" x14ac:dyDescent="0.45">
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="T20:V20"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="I10:O24"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="S8:U8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="S13:V13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2961,208 +2984,208 @@
   </sheetPr>
   <dimension ref="B1:AA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
+    <col min="3" max="3" width="55.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" customWidth="1"/>
+    <col min="5" max="6" width="18.265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.265625" customWidth="1"/>
+    <col min="11" max="11" width="9.265625" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" customWidth="1"/>
+    <col min="14" max="14" width="13.265625" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" customWidth="1"/>
-    <col min="21" max="21" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.86328125" customWidth="1"/>
+    <col min="21" max="21" width="2.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.1328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="3" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="3" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-    </row>
-    <row r="4" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+    <row r="6" spans="2:27" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="B6" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="69" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-    </row>
-    <row r="7" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="82"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="78" t="s">
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+    </row>
+    <row r="7" spans="2:27" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="B7" s="68"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="80" t="s">
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="81" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-    </row>
-    <row r="8" spans="2:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="82"/>
-      <c r="C8" s="69" t="s">
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+    </row>
+    <row r="8" spans="2:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="68"/>
+      <c r="C8" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79" t="s">
+      <c r="F8" s="74"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79" t="s">
+      <c r="I8" s="70"/>
+      <c r="J8" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79" t="s">
+      <c r="K8" s="70"/>
+      <c r="L8" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79" t="s">
+      <c r="M8" s="70"/>
+      <c r="N8" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="79"/>
-      <c r="P8" s="80" t="s">
+      <c r="O8" s="70"/>
+      <c r="P8" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="80" t="s">
+      <c r="Q8" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="80" t="s">
+      <c r="R8" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="80" t="s">
+      <c r="S8" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="80" t="s">
+      <c r="T8" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="81">
+      <c r="U8" s="69">
         <v>0</v>
       </c>
-      <c r="V8" s="81">
+      <c r="V8" s="69">
         <v>1</v>
       </c>
-      <c r="W8" s="81">
+      <c r="W8" s="69">
         <v>2</v>
       </c>
-      <c r="X8" s="81" t="s">
+      <c r="X8" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" s="81" t="s">
+      <c r="Y8" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="Z8" s="81" t="s">
+      <c r="Z8" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AA8" s="81" t="s">
+      <c r="AA8" s="69" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="78"/>
+    <row r="9" spans="2:27" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="B9" s="68"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="34" t="s">
         <v>55</v>
       </c>
@@ -3187,20 +3210,20 @@
       <c r="O9" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-    </row>
-    <row r="10" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
+    </row>
+    <row r="10" spans="2:27" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B10" s="11">
         <v>1</v>
       </c>
@@ -3217,7 +3240,7 @@
         <v>57</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14" t="s">
@@ -3246,7 +3269,7 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
     </row>
-    <row r="11" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B11" s="11">
         <v>2</v>
       </c>
@@ -3261,7 +3284,7 @@
         <v>57</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>59</v>
@@ -3294,17 +3317,17 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
     </row>
-    <row r="12" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B12" s="11">
         <v>3</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="46">
+        <v>101</v>
+      </c>
+      <c r="D12" s="45">
         <v>44480</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>44481</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -3338,7 +3361,9 @@
       <c r="T12" s="15"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
+      <c r="W12" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="X12" s="16"/>
       <c r="Y12" s="16" t="s">
         <v>59</v>
@@ -3346,17 +3371,17 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
     </row>
-    <row r="13" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B13" s="11">
         <v>4</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="46">
+        <v>62</v>
+      </c>
+      <c r="D13" s="45">
         <v>44477</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>44478</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -3391,7 +3416,9 @@
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="V13" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16" t="s">
@@ -3400,17 +3427,17 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
     </row>
-    <row r="14" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B14" s="11">
         <v>5</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>44475</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>44476</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -3454,7 +3481,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
     </row>
-    <row r="15" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -3482,45 +3509,57 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
     </row>
-    <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="G6:AA6"/>
@@ -3537,18 +3576,6 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3560,90 +3587,90 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59996337778862885"/>
   </sheetPr>
-  <dimension ref="B1:O17"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1328125" customWidth="1"/>
+    <col min="13" max="13" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B1" s="10"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="118" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="83" t="s">
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="84"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="102"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="91"/>
+      <c r="L4" s="109"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" s="103"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
       <c r="K5" s="2" t="s">
         <v>79</v>
       </c>
@@ -3651,11 +3678,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B6" s="18">
         <v>9</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="110" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="36">
@@ -3667,10 +3694,12 @@
       <c r="F6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="97"/>
+      <c r="G6" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
       <c r="K6" s="19" t="s">
         <v>57</v>
       </c>
@@ -3678,11 +3707,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B7" s="18">
         <v>10</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="36">
         <v>2</v>
       </c>
@@ -3692,10 +3721,12 @@
       <c r="F7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
+      <c r="G7" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
       <c r="K7" s="18" t="s">
         <v>57</v>
       </c>
@@ -3703,24 +3734,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B8" s="18">
         <v>11</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="35">
         <v>3</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>44480</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>44481</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="97"/>
+      <c r="G8" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
       <c r="K8" s="18" t="s">
         <v>61</v>
       </c>
@@ -3728,24 +3761,26 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B9" s="18">
         <v>12</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="35">
         <v>4</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>44477</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>44478</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="97"/>
+      <c r="G9" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
       <c r="K9" s="18" t="s">
         <v>62</v>
       </c>
@@ -3753,24 +3788,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="37">
         <v>5</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>44475</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>44476</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="100"/>
+      <c r="G10" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
       <c r="K10" s="2" t="s">
         <v>57</v>
       </c>
@@ -3778,7 +3815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3791,107 +3828,107 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>82</v>
       </c>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="111" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C14" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="111" t="s">
+      <c r="I14" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="108" t="s">
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="O14" s="109"/>
-    </row>
-    <row r="15" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="122" t="s">
+      <c r="O14" s="83"/>
+    </row>
+    <row r="15" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="106" t="s">
+      <c r="G15" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="103" t="s">
+      <c r="H15" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="119" t="s">
+      <c r="J15" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="119" t="s">
+      <c r="K15" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="121" t="s">
+      <c r="L15" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="M15" s="116" t="s">
+      <c r="M15" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="N15" s="90" t="s">
+      <c r="N15" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="88" t="s">
+      <c r="O15" s="86" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="122"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="107"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="87"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B17" s="30" t="s">
         <v>81</v>
       </c>
@@ -3937,8 +3974,58 @@
         <v>5</v>
       </c>
     </row>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="117" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="117" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="117" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N15:N16"/>
@@ -3955,17 +4042,6 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G5:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3974,14 +4050,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010002CD4CE788C0924AAB9A9AF8274C3BA0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="273ab99c845a0ab368c691b7cbc8d5c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="c85a2994-b133-49e3-84cc-c79bd127aa10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc735bd373cf9519d82bcfd02363e949" ns1:_="">
     <xsd:import namespace="c85a2994-b133-49e3-84cc-c79bd127aa10"/>
@@ -4069,6 +4137,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -4083,14 +4159,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3847F8EF-8AAF-48C9-9DFE-A66AC49D528B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFA01330-14A1-4347-A117-D4993E0979C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4108,6 +4176,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3847F8EF-8AAF-48C9-9DFE-A66AC49D528B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBB4F38B-0799-4886-B61C-8DBB46B47F73}">
   <ds:schemaRefs>
